--- a/biology/Zoologie/Faucon_crécerellette/Faucon_crécerellette.xlsx
+++ b/biology/Zoologie/Faucon_crécerellette/Faucon_crécerellette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falco naumanni
 Le Faucon crécerellette (Falco naumanni) ou Crécerelle de Naumann est une espèce de faucons de petite taille, très semblable au Faucon crécerelle mais plus svelte. Elle peut être désignée sous le nom vernaculaire de Crécerine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de nidification du faucon crécerellette s'étend de la zone méditerranéenne en passant par le Moyen-Orient jusqu'en Mongolie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques morphologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : 26 à 33 cm 
 Envergure : 61 à 66 cm
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Caractéristiques au vol</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faucon crécerellette comme le faucon crécerelle pratique le vol en « Saint-Esprit ».
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faucon crécerellette se nourrit en grande majorité d'insectes mais aussi de petits mammifères. Il peut s'adapter à toutes sortes d'autres proies, notamment celles qui sont les plus abondantes et les plus faciles à attraper sur son territoire. Citons pour exemple : oiseaux, lézards, serpents, grenouilles, vers de terre, poissons et crabes.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les faucons, le faucon crécerellette ne construit pas de nid. Il utilise pour nicher des anfractuosités existantes dans les falaises, des cavités de bâtiments ou des nichoirs artificiels installés dans d'anciennes bergeries... Il niche en petite colonie. La femelle pond 3 à 5 œufs.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Migration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau grégaire et migrateur, présent en France de début mars à début octobre.
 En France, le noyau de population se trouve dans le département des Bouches-du-Rhône dans la région de la Crau sèche et des Marais du Vigueirat mais l'espèce recolonise depuis les années 2000 d'anciens sites qui avaient été abandonnés dans les années 1970 dans l'Aude et l'Hérault.
@@ -692,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -710,9 +734,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Falco naumanni a été décrite par le naturaliste allemand Johann Gottlieb Fleischer en 1818[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Falco naumanni a été décrite par le naturaliste allemand Johann Gottlieb Fleischer en 1818.
 </t>
         </is>
       </c>
@@ -723,7 +749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,7 +767,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La LPO coordonne un programme de renforcement de la population française du Faucon crécerellette. Cette action de conservation débutée en 2006 dans le cadre d'un programme européen LIFE Nature a lieu principalement sur le département de l'Aude.
 La protection du dortoir principal trouvé en 2007 en Afrique sera un enjeu majeur pour la conservation de l'espèce, accompagné d'un suivi général plus exhaustif.
@@ -755,7 +783,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Faucon_cr%C3%A9cerellette</t>
+          <t>Faucon_crécerellette</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,9 +801,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Faucon crécerellette bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[2]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faucon crécerellette bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
